--- a/WebApp/TemplateFile/Export/报价模板.xlsx
+++ b/WebApp/TemplateFile/Export/报价模板.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Summary" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PO V4'!$A$1:$H$124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PO V4'!$A$1:$H$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">RFQ!$A:$P</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Summary!$A$1:$L$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">户外高空确认!$A$1:$G$58</definedName>
@@ -436,25 +436,138 @@
     </r>
   </si>
   <si>
-    <t>Window 橱窗</t>
-  </si>
-  <si>
-    <t>WOW 陈列桌区域</t>
-  </si>
-  <si>
-    <t>App Wall 服装墙</t>
-  </si>
-  <si>
-    <t>FTW Wall 鞋墙</t>
-  </si>
-  <si>
-    <t>In-store SMU 店内其它位置SMU</t>
-  </si>
-  <si>
-    <t>Cashier Desk 收银台区域</t>
-  </si>
-  <si>
-    <t>OOH 店外非橱窗位置</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橱窗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WOW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈列桌区域</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">App Wall </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服装墙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">FTW Wall </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋墙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">In-store SMU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>店内其它位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SMU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Cashier Desk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收银台区域</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">OOH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>店外非橱窗位置</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2692,21 +2805,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="yy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
     <numFmt numFmtId="183" formatCode="[$￥-804]#,##0.00;[Red][$￥-804]#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="70">
     <font>
       <sz val="10"/>
       <name val="AdiHaus"/>
@@ -2977,11 +3090,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2999,73 +3141,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3080,40 +3157,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3129,7 +3181,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3172,7 +3278,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3235,7 +3341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3247,7 +3371,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3259,31 +3455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3295,7 +3497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3313,109 +3515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4003,15 +4103,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4023,6 +4114,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4057,11 +4166,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4085,178 +4200,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="19" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="36" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="36" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="25" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="22" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -4265,14 +4365,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -4306,7 +4406,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4461,7 +4561,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4473,11 +4573,11 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4489,11 +4589,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="12" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="12" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="12" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="12" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4501,7 +4601,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -4557,7 +4657,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="5" borderId="5" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="5" borderId="5" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4585,7 +4685,7 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="3" borderId="5" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4600,10 +4700,10 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="3" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="3" borderId="5" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="3" borderId="5" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="3" borderId="5" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4634,7 +4734,7 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="3" borderId="5" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="5" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4649,7 +4749,7 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="9" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="9" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4664,7 +4764,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="18" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="18" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4672,19 +4772,19 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="26" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="181" fontId="26" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="67" applyFont="1" applyProtection="1">
@@ -4850,12 +4950,12 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="28" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="183" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5201,7 +5301,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5209,11 +5309,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5222,11 +5322,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="38" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5234,11 +5334,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5257,116 +5357,80 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="30" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="32" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="32" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="30" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="30" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5377,14 +5441,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -5397,23 +5461,23 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -5421,7 +5485,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="30" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -5429,7 +5493,7 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -5441,7 +5505,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5449,7 +5513,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5459,7 +5523,7 @@
     <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5469,19 +5533,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="32" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="32" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5489,7 +5561,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -5501,11 +5573,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5525,7 +5597,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="30" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5533,11 +5605,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5545,7 +5617,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5553,24 +5625,43 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="21" fillId="0" borderId="42" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5585,6 +5676,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5606,9 +5717,9 @@
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="Normal 37" xfId="14"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="百分比 2" xfId="16"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
     <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="注释" xfId="18" builtinId="10"/>
+    <cellStyle name="百分比 2" xfId="18"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="19" builtinId="36"/>
     <cellStyle name="标题 4" xfId="20" builtinId="19"/>
     <cellStyle name="警告文本" xfId="21" builtinId="11"/>
@@ -5757,7 +5868,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7208520" y="38100"/>
+          <a:off x="7465695" y="38100"/>
           <a:ext cx="912495" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5806,13 +5917,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>749300</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -5828,7 +5939,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6541770" y="14249400"/>
+              <a:off x="6798945" y="7200900"/>
               <a:ext cx="635000" cy="222250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5875,13 +5986,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>749300</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>15875</xdr:colOff>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -5897,7 +6008,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7501890" y="14249400"/>
+              <a:off x="7759065" y="7200900"/>
               <a:ext cx="635000" cy="222250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5944,13 +6055,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>749300</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -5966,7 +6077,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6541770" y="17773650"/>
+              <a:off x="6798945" y="10820400"/>
               <a:ext cx="635000" cy="225425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6013,13 +6124,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>749300</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>15875</xdr:colOff>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -6035,7 +6146,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7501890" y="17773650"/>
+              <a:off x="7759065" y="10820400"/>
               <a:ext cx="635000" cy="225425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6589,22 +6700,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD146"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="112" customWidth="1"/>
+    <col min="1" max="1" width="26.8571428571429" style="112" customWidth="1"/>
     <col min="2" max="2" width="18.6" style="112" customWidth="1"/>
     <col min="3" max="3" width="13.8" style="112" customWidth="1"/>
     <col min="4" max="4" width="8.6" style="112" customWidth="1"/>
     <col min="5" max="5" width="18.2" style="251" customWidth="1"/>
     <col min="6" max="6" width="14.2" style="112" customWidth="1"/>
     <col min="7" max="7" width="14.4" style="112" customWidth="1"/>
-    <col min="8" max="8" width="13.8" style="112" customWidth="1"/>
+    <col min="8" max="8" width="11" style="112" customWidth="1"/>
     <col min="9" max="9" width="9" style="112"/>
     <col min="10" max="10" width="12.8" style="112" customWidth="1"/>
     <col min="11" max="11" width="13.8" style="112" customWidth="1"/>
@@ -6625,13 +6736,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="253"/>
-      <c r="J1" s="234" t="s">
+      <c r="J1" s="333" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="234" t="s">
+      <c r="K1" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="234" t="s">
+      <c r="L1" s="333" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="235" t="s">
@@ -6640,7 +6751,7 @@
       <c r="N1" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="237" t="s">
+      <c r="O1" s="333" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6649,30 +6760,32 @@
         <v>7</v>
       </c>
       <c r="E2" s="253"/>
-      <c r="J2" s="238">
+      <c r="J2" s="334">
         <v>95203162</v>
       </c>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-    </row>
-    <row r="3" ht="6" customHeight="1" spans="10:13">
-      <c r="J3" s="238"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-    </row>
-    <row r="4" ht="8.25" customHeight="1" spans="5:13">
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+    </row>
+    <row r="3" ht="6" customHeight="1" spans="10:21">
+      <c r="J3" s="334"/>
+      <c r="O3" s="336"/>
+      <c r="S3" s="343"/>
+      <c r="T3" s="343"/>
+      <c r="U3" s="343"/>
+    </row>
+    <row r="4" ht="8.25" customHeight="1" spans="5:21">
       <c r="E4" s="254"/>
       <c r="F4" s="131"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" spans="1:14">
+      <c r="J4" s="334"/>
+      <c r="O4" s="336"/>
+      <c r="S4" s="343"/>
+      <c r="T4" s="343"/>
+      <c r="U4" s="343"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" spans="1:21">
       <c r="A5" s="255" t="s">
         <v>8</v>
       </c>
@@ -6692,12 +6805,15 @@
       <c r="J5" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="243"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:13">
+      <c r="K5" s="241"/>
+      <c r="L5" s="241"/>
+      <c r="M5" s="241"/>
+      <c r="O5" s="336"/>
+      <c r="S5" s="343"/>
+      <c r="T5" s="343"/>
+      <c r="U5" s="343"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:21">
       <c r="A6" s="168" t="s">
         <v>13</v>
       </c>
@@ -6712,23 +6828,27 @@
         <v>15</v>
       </c>
       <c r="H6" s="263"/>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="288" t="s">
+      <c r="J6" s="338" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="288" t="s">
+      <c r="K6" s="338" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="288" t="s">
+      <c r="L6" s="338" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="288" t="s">
+      <c r="M6" s="338" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" s="336"/>
+      <c r="S6" s="343"/>
+      <c r="T6" s="343"/>
+      <c r="U6" s="343"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="264" t="s">
         <v>21</v>
       </c>
@@ -6739,2781 +6859,2065 @@
         <v>22</v>
       </c>
       <c r="F7" s="145"/>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="266" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="134"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="288"/>
-      <c r="K7" s="288"/>
-      <c r="L7" s="288"/>
-      <c r="M7" s="288"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="I7" s="337"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="O7" s="336"/>
+      <c r="S7" s="343"/>
+      <c r="T7" s="343"/>
+      <c r="U7" s="343"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="266">
-        <v>1111</v>
-      </c>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
       <c r="E8" s="260" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="261"/>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="267"/>
-      <c r="I8" s="78">
+      <c r="H8" s="268"/>
+      <c r="I8" s="339">
         <f ca="1">TODAY()</f>
-        <v>43121</v>
-      </c>
-      <c r="J8" s="289"/>
-      <c r="K8" s="289"/>
-      <c r="L8" s="289"/>
-      <c r="M8" s="289"/>
+        <v>43266</v>
+      </c>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="O8" s="336"/>
+      <c r="S8" s="343"/>
+      <c r="T8" s="343"/>
+      <c r="U8" s="343"/>
     </row>
     <row r="9" s="174" customFormat="1" ht="5.25" customHeight="1" spans="1:15">
       <c r="A9" s="140"/>
       <c r="B9" s="141"/>
       <c r="C9" s="141"/>
       <c r="D9" s="141"/>
-      <c r="E9" s="268"/>
+      <c r="E9" s="269"/>
       <c r="F9" s="143"/>
-      <c r="G9" s="142"/>
+      <c r="G9" s="143"/>
       <c r="H9" s="144"/>
       <c r="I9" s="145"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="290"/>
-      <c r="M9" s="290"/>
-      <c r="O9" s="246"/>
-    </row>
-    <row r="10" ht="4.5" customHeight="1"/>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="269" t="s">
+      <c r="J9" s="340"/>
+      <c r="K9" s="340"/>
+      <c r="L9" s="340"/>
+      <c r="M9" s="340"/>
+      <c r="O9" s="341"/>
+    </row>
+    <row r="10" ht="4.5" customHeight="1" spans="15:21">
+      <c r="O10" s="336"/>
+      <c r="S10" s="343"/>
+      <c r="T10" s="343"/>
+      <c r="U10" s="343"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:21">
+      <c r="A11" s="270" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="270"/>
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="271">
-        <f>SUM(G13:G82)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="272" t="e">
+      <c r="B11" s="271"/>
+      <c r="C11" s="271"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="272">
+        <f>SUM(G13:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="273" t="e">
         <f>G11/SUM(F6,F8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="247"/>
-    </row>
-    <row r="12" s="151" customFormat="1" ht="57" customHeight="1" spans="1:15">
-      <c r="A12" s="216" t="s">
+      <c r="M11" s="113"/>
+      <c r="O11" s="336"/>
+      <c r="S11" s="343"/>
+      <c r="T11" s="343"/>
+      <c r="U11" s="343"/>
+    </row>
+    <row r="12" s="112" customFormat="1" ht="48" customHeight="1" spans="1:15">
+      <c r="A12" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="216" t="s">
+      <c r="D12" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="273" t="s">
+      <c r="E12" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="216" t="s">
+      <c r="F12" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="274" t="s">
+      <c r="G12" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="274" t="s">
+      <c r="H12" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="291"/>
-      <c r="O12" s="175"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="275" t="s">
+      <c r="I12" s="342"/>
+      <c r="O12" s="336"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:21">
+      <c r="A13" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="276"/>
+      <c r="B13" s="278"/>
       <c r="C13" s="152"/>
       <c r="D13" s="152" t="str">
         <f>IF(ISBLANK(C13),"",VLOOKUP(C13,X:Z,3,0))</f>
         <v/>
       </c>
-      <c r="E13" s="277"/>
-      <c r="F13" s="278">
+      <c r="E13" s="279"/>
+      <c r="F13" s="280">
         <f>IF(ISBLANK(C13),,VLOOKUP(C13,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="279">
-        <f t="shared" ref="G13:G23" si="0">F13*E13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="280">
-        <f>SUM(G13:G22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="281"/>
+      <c r="G13" s="281">
+        <f t="shared" ref="G13:G33" si="0">F13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="282">
+        <f>SUM(G13:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="336"/>
+      <c r="S13" s="343"/>
+      <c r="T13" s="343"/>
+      <c r="U13" s="343"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:21">
+      <c r="A14" s="277"/>
       <c r="B14" s="153"/>
       <c r="C14" s="152"/>
       <c r="D14" s="152" t="str">
         <f>IF(ISBLANK(C14),"",VLOOKUP(C14,X:Z,3,0))</f>
         <v/>
       </c>
-      <c r="E14" s="277"/>
-      <c r="F14" s="278">
+      <c r="E14" s="279"/>
+      <c r="F14" s="280">
         <f>IF(ISBLANK(C14),,VLOOKUP(C14,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="279">
+      <c r="G14" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="282"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="281"/>
+      <c r="H14" s="283"/>
+      <c r="O14" s="336"/>
+      <c r="S14" s="343"/>
+      <c r="T14" s="343"/>
+      <c r="U14" s="343"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:21">
+      <c r="A15" s="277"/>
       <c r="B15" s="153"/>
       <c r="C15" s="152"/>
       <c r="D15" s="152" t="str">
         <f>IF(ISBLANK(C15),"",VLOOKUP(C15,X:Z,3,0))</f>
         <v/>
       </c>
-      <c r="E15" s="277"/>
-      <c r="F15" s="278">
+      <c r="E15" s="279"/>
+      <c r="F15" s="280">
         <f>IF(ISBLANK(C15),,VLOOKUP(C15,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="279">
+      <c r="G15" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="282"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="281"/>
+      <c r="H15" s="283"/>
+      <c r="O15" s="336"/>
+      <c r="S15" s="343"/>
+      <c r="T15" s="343"/>
+      <c r="U15" s="343"/>
+    </row>
+    <row r="16" ht="11" customHeight="1" spans="1:21">
+      <c r="A16" s="277" t="s">
+        <v>37</v>
+      </c>
       <c r="B16" s="153"/>
       <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="278">
+      <c r="D16" s="152" t="str">
+        <f>IF(ISBLANK(C16),"",VLOOKUP(C16,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E16" s="279"/>
+      <c r="F16" s="280">
         <f>IF(ISBLANK(C16),,VLOOKUP(C16,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="279">
+      <c r="G16" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="282"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="281"/>
+      <c r="H16" s="282">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="336"/>
+      <c r="S16" s="343"/>
+      <c r="T16" s="343"/>
+      <c r="U16" s="343"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="277"/>
       <c r="B17" s="153"/>
       <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="277"/>
-      <c r="F17" s="278">
+      <c r="D17" s="152" t="str">
+        <f>IF(ISBLANK(C17),"",VLOOKUP(C17,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E17" s="279"/>
+      <c r="F17" s="280">
         <f>IF(ISBLANK(C17),,VLOOKUP(C17,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="279">
+      <c r="G17" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="282"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="281"/>
+      <c r="H17" s="283"/>
+      <c r="O17" s="336"/>
+      <c r="S17" s="343"/>
+      <c r="T17" s="343"/>
+      <c r="U17" s="343"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="277"/>
       <c r="B18" s="153"/>
       <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="278">
+      <c r="D18" s="152" t="str">
+        <f>IF(ISBLANK(C18),"",VLOOKUP(C18,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E18" s="279"/>
+      <c r="F18" s="280">
         <f>IF(ISBLANK(C18),,VLOOKUP(C18,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="279">
+      <c r="G18" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="282"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="281"/>
+      <c r="H18" s="283"/>
+      <c r="O18" s="336"/>
+      <c r="S18" s="343"/>
+      <c r="T18" s="343"/>
+      <c r="U18" s="343"/>
+    </row>
+    <row r="19" ht="11" customHeight="1" spans="1:21">
+      <c r="A19" s="277" t="s">
+        <v>38</v>
+      </c>
       <c r="B19" s="153"/>
       <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="277"/>
-      <c r="F19" s="278">
+      <c r="D19" s="152" t="str">
+        <f>IF(ISBLANK(C19),"",VLOOKUP(C19,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E19" s="279"/>
+      <c r="F19" s="280">
         <f>IF(ISBLANK(C19),,VLOOKUP(C19,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="279">
+      <c r="G19" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="282"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="281"/>
+      <c r="H19" s="282">
+        <f>SUM(G19:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="336"/>
+      <c r="S19" s="343"/>
+      <c r="T19" s="343"/>
+      <c r="U19" s="343"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="277"/>
       <c r="B20" s="153"/>
       <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="277"/>
-      <c r="F20" s="278">
+      <c r="D20" s="152" t="str">
+        <f>IF(ISBLANK(C20),"",VLOOKUP(C20,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E20" s="279"/>
+      <c r="F20" s="280">
         <f>IF(ISBLANK(C20),,VLOOKUP(C20,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="279">
+      <c r="G20" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="282"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="281"/>
+      <c r="H20" s="283"/>
+      <c r="O20" s="336"/>
+      <c r="S20" s="343"/>
+      <c r="T20" s="343"/>
+      <c r="U20" s="343"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="277"/>
       <c r="B21" s="153"/>
       <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="278">
+      <c r="D21" s="152" t="str">
+        <f>IF(ISBLANK(C21),"",VLOOKUP(C21,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E21" s="279"/>
+      <c r="F21" s="280">
         <f>IF(ISBLANK(C21),,VLOOKUP(C21,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="279">
+      <c r="G21" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="282"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="283"/>
+      <c r="H21" s="283"/>
+      <c r="O21" s="336"/>
+      <c r="S21" s="343"/>
+      <c r="T21" s="343"/>
+      <c r="U21" s="343"/>
+    </row>
+    <row r="22" ht="11" customHeight="1" spans="1:21">
+      <c r="A22" s="277" t="s">
+        <v>39</v>
+      </c>
       <c r="B22" s="153"/>
       <c r="C22" s="152"/>
       <c r="D22" s="152" t="str">
         <f>IF(ISBLANK(C22),"",VLOOKUP(C22,X:Z,3,0))</f>
         <v/>
       </c>
-      <c r="E22" s="277"/>
-      <c r="F22" s="278">
+      <c r="E22" s="279"/>
+      <c r="F22" s="280">
         <f>IF(ISBLANK(C22),,VLOOKUP(C22,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="279">
+      <c r="G22" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="284"/>
-    </row>
-    <row r="23" ht="11" customHeight="1" spans="1:8">
-      <c r="A23" s="275" t="s">
-        <v>37</v>
-      </c>
+      <c r="H22" s="282">
+        <f>SUM(G22:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="336"/>
+      <c r="S22" s="343"/>
+      <c r="T22" s="343"/>
+      <c r="U22" s="343"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="277"/>
       <c r="B23" s="153"/>
       <c r="C23" s="152"/>
       <c r="D23" s="152" t="str">
         <f>IF(ISBLANK(C23),"",VLOOKUP(C23,X:Z,3,0))</f>
         <v/>
       </c>
-      <c r="E23" s="277"/>
-      <c r="F23" s="278">
+      <c r="E23" s="279"/>
+      <c r="F23" s="280">
         <f>IF(ISBLANK(C23),,VLOOKUP(C23,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G23" s="279">
+      <c r="G23" s="281">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="280">
-        <f>SUM(G23:G32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="281"/>
+      <c r="H23" s="283"/>
+      <c r="O23" s="336"/>
+      <c r="S23" s="343"/>
+      <c r="T23" s="343"/>
+      <c r="U23" s="343"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="277"/>
       <c r="B24" s="153"/>
       <c r="C24" s="152"/>
       <c r="D24" s="152" t="str">
         <f>IF(ISBLANK(C24),"",VLOOKUP(C24,X:Z,3,0))</f>
         <v/>
       </c>
-      <c r="E24" s="277"/>
-      <c r="F24" s="278">
+      <c r="E24" s="279"/>
+      <c r="F24" s="280">
         <f>IF(ISBLANK(C24),,VLOOKUP(C24,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="279">
-        <f t="shared" ref="G24:G82" si="1">F24*E24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="282"/>
-      <c r="I24" s="292"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="281"/>
+      <c r="G24" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="283"/>
+      <c r="O24" s="336"/>
+      <c r="S24" s="343"/>
+      <c r="T24" s="343"/>
+      <c r="U24" s="343"/>
+    </row>
+    <row r="25" ht="11" customHeight="1" spans="1:21">
+      <c r="A25" s="277" t="s">
+        <v>40</v>
+      </c>
       <c r="B25" s="153"/>
       <c r="C25" s="152"/>
       <c r="D25" s="152" t="str">
         <f>IF(ISBLANK(C25),"",VLOOKUP(C25,X:Z,3,0))</f>
         <v/>
       </c>
-      <c r="E25" s="277"/>
-      <c r="F25" s="278">
+      <c r="E25" s="279"/>
+      <c r="F25" s="280">
         <f>IF(ISBLANK(C25),,VLOOKUP(C25,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="282"/>
-      <c r="I25" s="292"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="281"/>
+      <c r="G25" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="282">
+        <f>SUM(G25:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="336"/>
+      <c r="S25" s="343"/>
+      <c r="T25" s="343"/>
+      <c r="U25" s="343"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="277"/>
       <c r="B26" s="153"/>
       <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="277"/>
-      <c r="F26" s="278">
+      <c r="D26" s="152" t="str">
+        <f>IF(ISBLANK(C26),"",VLOOKUP(C26,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E26" s="279"/>
+      <c r="F26" s="280">
         <f>IF(ISBLANK(C26),,VLOOKUP(C26,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="282"/>
-      <c r="I26" s="292"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="281"/>
+      <c r="G26" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="283"/>
+      <c r="O26" s="336"/>
+      <c r="S26" s="343"/>
+      <c r="T26" s="343"/>
+      <c r="U26" s="343"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="277"/>
       <c r="B27" s="153"/>
       <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="278">
+      <c r="D27" s="152" t="str">
+        <f>IF(ISBLANK(C27),"",VLOOKUP(C27,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E27" s="279"/>
+      <c r="F27" s="280">
         <f>IF(ISBLANK(C27),,VLOOKUP(C27,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G27" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="282"/>
-      <c r="I27" s="292"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="281"/>
+      <c r="G27" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="283"/>
+      <c r="O27" s="336"/>
+      <c r="S27" s="343"/>
+      <c r="T27" s="343"/>
+      <c r="U27" s="343"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1" spans="1:21">
+      <c r="A28" s="277" t="s">
+        <v>41</v>
+      </c>
       <c r="B28" s="153"/>
       <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="277"/>
-      <c r="F28" s="278">
+      <c r="D28" s="152" t="str">
+        <f>IF(ISBLANK(C28),"",VLOOKUP(C28,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E28" s="279"/>
+      <c r="F28" s="280">
         <f>IF(ISBLANK(C28),,VLOOKUP(C28,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="282"/>
-      <c r="I28" s="292"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="281"/>
+      <c r="G28" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="282">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="336"/>
+      <c r="S28" s="343"/>
+      <c r="T28" s="343"/>
+      <c r="U28" s="343"/>
+    </row>
+    <row r="29" ht="12.75" customHeight="1" spans="1:21">
+      <c r="A29" s="277"/>
       <c r="B29" s="153"/>
       <c r="C29" s="152"/>
       <c r="D29" s="152"/>
-      <c r="E29" s="277"/>
-      <c r="F29" s="278">
+      <c r="E29" s="279"/>
+      <c r="F29" s="280">
         <f>IF(ISBLANK(C29),,VLOOKUP(C29,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="282"/>
-      <c r="I29" s="292"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="281"/>
+      <c r="G29" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="283"/>
+      <c r="O29" s="336"/>
+      <c r="S29" s="343"/>
+      <c r="T29" s="343"/>
+      <c r="U29" s="343"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="277"/>
       <c r="B30" s="153"/>
       <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="277"/>
-      <c r="F30" s="278">
+      <c r="D30" s="152" t="str">
+        <f>IF(ISBLANK(C30),"",VLOOKUP(C30,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E30" s="279"/>
+      <c r="F30" s="280">
         <f>IF(ISBLANK(C30),,VLOOKUP(C30,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="282"/>
-      <c r="I30" s="292"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="281"/>
+      <c r="G30" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="283"/>
+      <c r="O30" s="336"/>
+      <c r="S30" s="343"/>
+      <c r="T30" s="343"/>
+      <c r="U30" s="343"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1" spans="1:21">
+      <c r="A31" s="277" t="s">
+        <v>42</v>
+      </c>
       <c r="B31" s="153"/>
       <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="277"/>
-      <c r="F31" s="278">
+      <c r="D31" s="152" t="str">
+        <f>IF(ISBLANK(C31),"",VLOOKUP(C31,X:Z,3,0))</f>
+        <v/>
+      </c>
+      <c r="E31" s="279"/>
+      <c r="F31" s="280">
         <f>IF(ISBLANK(C31),,VLOOKUP(C31,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="282"/>
-      <c r="I31" s="292"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="283"/>
+      <c r="G31" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="282">
+        <f>SUM(G31:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="336"/>
+      <c r="S31" s="343"/>
+      <c r="T31" s="343"/>
+      <c r="U31" s="343"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="277"/>
       <c r="B32" s="153"/>
       <c r="C32" s="152"/>
       <c r="D32" s="152" t="str">
         <f>IF(ISBLANK(C32),"",VLOOKUP(C32,X:Z,3,0))</f>
         <v/>
       </c>
-      <c r="E32" s="277"/>
-      <c r="F32" s="278">
+      <c r="E32" s="279"/>
+      <c r="F32" s="280">
         <f>IF(ISBLANK(C32),,VLOOKUP(C32,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="284"/>
-      <c r="I32" s="292"/>
-    </row>
-    <row r="33" ht="11" customHeight="1" spans="1:9">
-      <c r="A33" s="285" t="s">
-        <v>38</v>
-      </c>
+      <c r="G32" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="283"/>
+      <c r="O32" s="336"/>
+      <c r="S32" s="343"/>
+      <c r="T32" s="343"/>
+      <c r="U32" s="343"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="277"/>
       <c r="B33" s="153"/>
       <c r="C33" s="152"/>
-      <c r="D33" s="152" t="str">
-        <f>IF(ISBLANK(C33),"",VLOOKUP(C33,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E33" s="277"/>
-      <c r="F33" s="278">
+      <c r="D33" s="152"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="280">
         <f>IF(ISBLANK(C33),,VLOOKUP(C33,X:Y,2,0))</f>
         <v>0</v>
       </c>
-      <c r="G33" s="279">
+      <c r="G33" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="283"/>
+      <c r="O33" s="336"/>
+      <c r="S33" s="343"/>
+      <c r="T33" s="343"/>
+      <c r="U33" s="343"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:28">
+      <c r="A34" s="284" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="284"/>
+      <c r="C34" s="284"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="284"/>
+      <c r="F34" s="284"/>
+      <c r="G34" s="284"/>
+      <c r="H34" s="285"/>
+      <c r="S34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T34" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V34" s="164"/>
+      <c r="X34" s="344" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y34" s="344">
+        <v>84.6</v>
+      </c>
+      <c r="Z34" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA34" s="345"/>
+      <c r="AB34" s="250"/>
+    </row>
+    <row r="35" ht="45" customHeight="1" spans="1:30">
+      <c r="A35" s="216" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="274" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="286" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="286" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="287" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="274" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="286" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="286" t="s">
+        <v>51</v>
+      </c>
+      <c r="S35" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W35" s="164"/>
+      <c r="X35" s="344" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y35" s="344">
+        <v>68</v>
+      </c>
+      <c r="Z35" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA35" s="345"/>
+      <c r="AB35" s="250"/>
+      <c r="AC35" s="164"/>
+      <c r="AD35" s="164"/>
+    </row>
+    <row r="36" ht="12.75" spans="1:30">
+      <c r="A36" s="288" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="289">
+        <f>SUMIF($C$12:$C$34,A36,$E$12:$E$34)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="290" t="e">
+        <f t="shared" ref="C36:C41" si="1">B36/SUM($F$6,$F$8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="291" t="e">
+        <f>C36*68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="292" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="289">
+        <f t="shared" ref="F36:F41" si="2">SUMIF($C$12:$C$34,E36,$E$12:$E$34)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="290" t="e">
+        <f t="shared" ref="G36:G41" si="3">F36/SUM($F$6,$F$8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="293" t="e">
+        <f>G36*29.7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="W36" s="164"/>
+      <c r="X36" s="344" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y36" s="344">
+        <v>64.8</v>
+      </c>
+      <c r="Z36" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA36" s="345"/>
+      <c r="AB36" s="250"/>
+      <c r="AC36" s="164"/>
+      <c r="AD36" s="164"/>
+    </row>
+    <row r="37" ht="12.75" spans="1:28">
+      <c r="A37" s="288" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="289">
+        <f>SUMIF(C$12:C$34,A37,E$12:E$34)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="290" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="280">
-        <f>SUM(G33:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="292"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="286"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152" t="str">
-        <f>IF(ISBLANK(C34),"",VLOOKUP(C34,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E34" s="277"/>
-      <c r="F34" s="278">
-        <f>IF(ISBLANK(C34),,VLOOKUP(C34,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="282"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="286"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152" t="str">
-        <f>IF(ISBLANK(C35),"",VLOOKUP(C35,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E35" s="277"/>
-      <c r="F35" s="278">
-        <f>IF(ISBLANK(C35),,VLOOKUP(C35,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="282"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="286"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="277"/>
-      <c r="F36" s="278">
-        <f>IF(ISBLANK(C36),,VLOOKUP(C36,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="282"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="286"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="277"/>
-      <c r="F37" s="278">
-        <f>IF(ISBLANK(C37),,VLOOKUP(C37,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="282"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="286"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="277"/>
-      <c r="F38" s="278">
-        <f>IF(ISBLANK(C38),,VLOOKUP(C38,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="282"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="286"/>
-      <c r="B39" s="153"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="277"/>
-      <c r="F39" s="278">
-        <f>IF(ISBLANK(C39),,VLOOKUP(C39,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="282"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="286"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="278">
-        <f>IF(ISBLANK(C40),,VLOOKUP(C40,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="282"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="286"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="277"/>
-      <c r="F41" s="278">
-        <f>IF(ISBLANK(C41),,VLOOKUP(C41,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="282"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="287"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="277"/>
-      <c r="F42" s="278">
-        <f>IF(ISBLANK(C42),,VLOOKUP(C42,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="282"/>
-    </row>
-    <row r="43" ht="11" customHeight="1" spans="1:8">
-      <c r="A43" s="285" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152" t="str">
-        <f>IF(ISBLANK(C43),"",VLOOKUP(C43,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E43" s="277"/>
-      <c r="F43" s="278">
-        <f>IF(ISBLANK(C43),,VLOOKUP(C43,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="280">
-        <f>SUM(G43:G52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="286"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152" t="str">
-        <f>IF(ISBLANK(C44),"",VLOOKUP(C44,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E44" s="277"/>
-      <c r="F44" s="278">
-        <f>IF(ISBLANK(C44),,VLOOKUP(C44,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="282"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="286"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152" t="str">
-        <f>IF(ISBLANK(C45),"",VLOOKUP(C45,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E45" s="277"/>
-      <c r="F45" s="278">
-        <f>IF(ISBLANK(C45),,VLOOKUP(C45,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="282"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="286"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="277"/>
-      <c r="F46" s="278">
-        <f>IF(ISBLANK(C46),,VLOOKUP(C46,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="282"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="286"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="277"/>
-      <c r="F47" s="278">
-        <f>IF(ISBLANK(C47),,VLOOKUP(C47,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="282"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="286"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="277"/>
-      <c r="F48" s="278">
-        <f>IF(ISBLANK(C48),,VLOOKUP(C48,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="282"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="286"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="277"/>
-      <c r="F49" s="278">
-        <f>IF(ISBLANK(C49),,VLOOKUP(C49,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="282"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="286"/>
-      <c r="B50" s="153"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="277"/>
-      <c r="F50" s="278">
-        <f>IF(ISBLANK(C50),,VLOOKUP(C50,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="282"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="286"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="277"/>
-      <c r="F51" s="278">
-        <f>IF(ISBLANK(C51),,VLOOKUP(C51,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="282"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="287"/>
-      <c r="B52" s="153"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152" t="str">
-        <f>IF(ISBLANK(C52),"",VLOOKUP(C52,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E52" s="277"/>
-      <c r="F52" s="278">
-        <f>IF(ISBLANK(C52),,VLOOKUP(C52,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="284"/>
-    </row>
-    <row r="53" ht="11" customHeight="1" spans="1:8">
-      <c r="A53" s="285" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="153"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="152" t="str">
-        <f>IF(ISBLANK(C53),"",VLOOKUP(C53,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E53" s="277"/>
-      <c r="F53" s="278">
-        <f>IF(ISBLANK(C53),,VLOOKUP(C53,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="280">
-        <f>SUM(G53:G62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="286"/>
-      <c r="B54" s="153"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="152" t="str">
-        <f>IF(ISBLANK(C54),"",VLOOKUP(C54,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E54" s="277"/>
-      <c r="F54" s="278">
-        <f>IF(ISBLANK(C54),,VLOOKUP(C54,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="282"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="286"/>
-      <c r="B55" s="153"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152" t="str">
-        <f>IF(ISBLANK(C55),"",VLOOKUP(C55,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E55" s="277"/>
-      <c r="F55" s="278">
-        <f>IF(ISBLANK(C55),,VLOOKUP(C55,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="282"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="286"/>
-      <c r="B56" s="153"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="277"/>
-      <c r="F56" s="278">
-        <f>IF(ISBLANK(C56),,VLOOKUP(C56,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="282"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="286"/>
-      <c r="B57" s="153"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="277"/>
-      <c r="F57" s="278">
-        <f>IF(ISBLANK(C57),,VLOOKUP(C57,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="282"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="286"/>
-      <c r="B58" s="153"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="277"/>
-      <c r="F58" s="278">
-        <f>IF(ISBLANK(C58),,VLOOKUP(C58,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="282"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="286"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="277"/>
-      <c r="F59" s="278">
-        <f>IF(ISBLANK(C59),,VLOOKUP(C59,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="282"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="286"/>
-      <c r="B60" s="153"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="277"/>
-      <c r="F60" s="278">
-        <f>IF(ISBLANK(C60),,VLOOKUP(C60,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="282"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="286"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="277"/>
-      <c r="F61" s="278">
-        <f>IF(ISBLANK(C61),,VLOOKUP(C61,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="282"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="287"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="152" t="str">
-        <f>IF(ISBLANK(C62),"",VLOOKUP(C62,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E62" s="277"/>
-      <c r="F62" s="278">
-        <f>IF(ISBLANK(C62),,VLOOKUP(C62,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="284"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A63" s="285" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="153"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="152" t="str">
-        <f>IF(ISBLANK(C63),"",VLOOKUP(C63,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E63" s="277"/>
-      <c r="F63" s="278">
-        <f>IF(ISBLANK(C63),,VLOOKUP(C63,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="280">
-        <f>SUM(G63:G72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="286"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152" t="str">
-        <f>IF(ISBLANK(C64),"",VLOOKUP(C64,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E64" s="277"/>
-      <c r="F64" s="278">
-        <f>IF(ISBLANK(C64),,VLOOKUP(C64,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="282"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="286"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="152" t="str">
-        <f>IF(ISBLANK(C65),"",VLOOKUP(C65,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E65" s="277"/>
-      <c r="F65" s="278">
-        <f>IF(ISBLANK(C65),,VLOOKUP(C65,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="282"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="286"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="277"/>
-      <c r="F66" s="278">
-        <f>IF(ISBLANK(C66),,VLOOKUP(C66,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="282"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="286"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="277"/>
-      <c r="F67" s="278">
-        <f>IF(ISBLANK(C67),,VLOOKUP(C67,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="282"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="286"/>
-      <c r="B68" s="153"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="277"/>
-      <c r="F68" s="278">
-        <f>IF(ISBLANK(C68),,VLOOKUP(C68,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="282"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="286"/>
-      <c r="B69" s="153"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="277"/>
-      <c r="F69" s="278">
-        <f>IF(ISBLANK(C69),,VLOOKUP(C69,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="282"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="286"/>
-      <c r="B70" s="153"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="277"/>
-      <c r="F70" s="278">
-        <f>IF(ISBLANK(C70),,VLOOKUP(C70,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="282"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="286"/>
-      <c r="B71" s="153"/>
-      <c r="C71" s="152"/>
-      <c r="D71" s="152"/>
-      <c r="E71" s="277"/>
-      <c r="F71" s="278">
-        <f>IF(ISBLANK(C71),,VLOOKUP(C71,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="282"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="287"/>
-      <c r="B72" s="153"/>
-      <c r="C72" s="152"/>
-      <c r="D72" s="152" t="str">
-        <f>IF(ISBLANK(C72),"",VLOOKUP(C72,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E72" s="277"/>
-      <c r="F72" s="278">
-        <f>IF(ISBLANK(C72),,VLOOKUP(C72,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="284"/>
-    </row>
-    <row r="73" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A73" s="285" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="153"/>
-      <c r="C73" s="152"/>
-      <c r="D73" s="152" t="str">
-        <f>IF(ISBLANK(C73),"",VLOOKUP(C73,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E73" s="277"/>
-      <c r="F73" s="278">
-        <f>IF(ISBLANK(C73),,VLOOKUP(C73,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="280">
-        <f>SUM(G73:G82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="286"/>
-      <c r="B74" s="153"/>
-      <c r="C74" s="152"/>
-      <c r="D74" s="152" t="str">
-        <f>IF(ISBLANK(C74),"",VLOOKUP(C74,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E74" s="277"/>
-      <c r="F74" s="278">
-        <f>IF(ISBLANK(C74),,VLOOKUP(C74,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="282"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="286"/>
-      <c r="B75" s="153"/>
-      <c r="C75" s="152"/>
-      <c r="D75" s="152"/>
-      <c r="E75" s="277"/>
-      <c r="F75" s="278">
-        <f t="shared" ref="F75:F81" si="2">IF(ISBLANK(C75),,VLOOKUP(C75,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="282"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="286"/>
-      <c r="B76" s="153"/>
-      <c r="C76" s="152"/>
-      <c r="D76" s="152"/>
-      <c r="E76" s="277"/>
-      <c r="F76" s="278">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="291" t="e">
+        <f>C37*30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="294" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="289">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="282"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="286"/>
-      <c r="B77" s="153"/>
-      <c r="C77" s="152"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="277"/>
-      <c r="F77" s="278">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="282"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="286"/>
-      <c r="B78" s="153"/>
-      <c r="C78" s="152"/>
-      <c r="D78" s="152"/>
-      <c r="E78" s="277"/>
-      <c r="F78" s="278">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="282"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="286"/>
-      <c r="B79" s="153"/>
-      <c r="C79" s="152"/>
-      <c r="D79" s="152"/>
-      <c r="E79" s="277"/>
-      <c r="F79" s="278">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="282"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="286"/>
-      <c r="B80" s="153"/>
-      <c r="C80" s="152"/>
-      <c r="D80" s="152"/>
-      <c r="E80" s="277"/>
-      <c r="F80" s="278">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="282"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="286"/>
-      <c r="B81" s="153"/>
-      <c r="C81" s="152"/>
-      <c r="D81" s="152"/>
-      <c r="E81" s="277"/>
-      <c r="F81" s="278">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="282"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="287"/>
-      <c r="B82" s="153"/>
-      <c r="C82" s="152"/>
-      <c r="D82" s="152" t="str">
-        <f>IF(ISBLANK(C82),"",VLOOKUP(C82,X:Z,3,0))</f>
-        <v/>
-      </c>
-      <c r="E82" s="277"/>
-      <c r="F82" s="278">
-        <f>IF(ISBLANK(C82),,VLOOKUP(C82,X:Y,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="279">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="284"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:28">
-      <c r="A83" s="293" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="293"/>
-      <c r="C83" s="293"/>
-      <c r="D83" s="293"/>
-      <c r="E83" s="293"/>
-      <c r="F83" s="293"/>
-      <c r="G83" s="293"/>
-      <c r="H83" s="294"/>
-      <c r="S83" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T83" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="U83" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="V83" s="164"/>
-      <c r="X83" s="345" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y83" s="345">
-        <v>84.6</v>
-      </c>
-      <c r="Z83" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA83" s="346"/>
-      <c r="AB83" s="250"/>
-    </row>
-    <row r="84" ht="45" customHeight="1" spans="1:30">
-      <c r="A84" s="216" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="295" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="296" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="296" t="s">
-        <v>51</v>
-      </c>
-      <c r="E84" s="273" t="s">
-        <v>48</v>
-      </c>
-      <c r="F84" s="295" t="s">
-        <v>49</v>
-      </c>
-      <c r="G84" s="296" t="s">
-        <v>50</v>
-      </c>
-      <c r="H84" s="296" t="s">
-        <v>51</v>
-      </c>
-      <c r="S84" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="T84" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="U84" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W84" s="164"/>
-      <c r="X84" s="345" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y84" s="345">
-        <v>68</v>
-      </c>
-      <c r="Z84" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA84" s="346"/>
-      <c r="AB84" s="250"/>
-      <c r="AC84" s="164"/>
-      <c r="AD84" s="164"/>
-    </row>
-    <row r="85" ht="12" spans="1:30">
-      <c r="A85" s="297" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="298">
-        <f>SUMIF($C$12:$C$83,A85,$E$12:$E$83)</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="299" t="e">
-        <f t="shared" ref="C85:C90" si="3">B85/SUM($F$6,$F$8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D85" s="300" t="e">
-        <f>C85*68</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E85" s="301" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="298">
-        <f t="shared" ref="F85:F90" si="4">SUMIF($C$12:$C$83,E85,$E$12:$E$83)</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="299" t="e">
-        <f t="shared" ref="G85:G90" si="5">F85/SUM($F$6,$F$8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="302" t="e">
-        <f>G85*29.7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S85" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="T85" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="U85" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="W85" s="164"/>
-      <c r="X85" s="345" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y85" s="345">
-        <v>64.8</v>
-      </c>
-      <c r="Z85" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA85" s="346"/>
-      <c r="AB85" s="250"/>
-      <c r="AC85" s="164"/>
-      <c r="AD85" s="164"/>
-    </row>
-    <row r="86" ht="12" spans="1:28">
-      <c r="A86" s="297" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" s="298">
-        <f>SUMIF(C$12:C$83,A86,E$12:E$83)</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="299" t="e">
+      <c r="G37" s="290" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D86" s="300" t="e">
-        <f>C86*30</f>
+      <c r="H37" s="293" t="e">
+        <f>G37*36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E86" s="303" t="s">
-        <v>62</v>
-      </c>
-      <c r="F86" s="298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="299" t="e">
-        <f t="shared" si="5"/>
+      <c r="S37" t="s">
+        <v>63</v>
+      </c>
+      <c r="T37" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="U37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="X37" s="344" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y37" s="344">
+        <v>29.7</v>
+      </c>
+      <c r="Z37" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA37" s="345"/>
+      <c r="AB37" s="346"/>
+    </row>
+    <row r="38" ht="12.75" spans="1:28">
+      <c r="A38" s="288" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="289">
+        <f>SUMIF(C$12:C$34,A38,E$12:E$34)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="290" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="302" t="e">
-        <f>G86*36</f>
+      <c r="D38" s="291" t="e">
+        <f>C38*20.71</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S86" t="s">
-        <v>63</v>
-      </c>
-      <c r="T86" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="U86" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="X86" s="345" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y86" s="345">
-        <v>29.7</v>
-      </c>
-      <c r="Z86" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA86" s="346"/>
-      <c r="AB86" s="347"/>
-    </row>
-    <row r="87" ht="12" spans="1:28">
-      <c r="A87" s="297" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" s="298">
-        <f>SUMIF(C$12:C$83,A87,E$12:E$83)</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="299" t="e">
+      <c r="E38" s="294" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="289">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="290" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D87" s="300" t="e">
-        <f>C87*20.71</f>
+      <c r="H38" s="293" t="e">
+        <f>G38*42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E87" s="303" t="s">
-        <v>68</v>
-      </c>
-      <c r="F87" s="298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="299" t="e">
-        <f t="shared" si="5"/>
+      <c r="S38" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="T38" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="X38" s="344" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y38" s="344">
+        <v>36</v>
+      </c>
+      <c r="Z38" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA38" s="345"/>
+      <c r="AB38" s="346"/>
+    </row>
+    <row r="39" ht="12.75" spans="1:28">
+      <c r="A39" s="288" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="289">
+        <f>SUMIF(C$12:C$34,A39,E$12:E$34)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="290" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="302" t="e">
-        <f>G87*42</f>
+      <c r="D39" s="291" t="e">
+        <f>C39*36.9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S87" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="T87" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="X87" s="345" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y87" s="345">
-        <v>36</v>
-      </c>
-      <c r="Z87" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA87" s="346"/>
-      <c r="AB87" s="347"/>
-    </row>
-    <row r="88" ht="12" spans="1:28">
-      <c r="A88" s="297" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" s="298">
-        <f>SUMIF(C$12:C$83,A88,E$12:E$83)</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="299" t="e">
+      <c r="E39" s="294" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="289">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="290" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D88" s="300" t="e">
-        <f>C88*36.9</f>
+      <c r="H39" s="293" t="e">
+        <f>G39*42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E88" s="303" t="s">
-        <v>73</v>
-      </c>
-      <c r="F88" s="298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="299" t="e">
-        <f t="shared" si="5"/>
+      <c r="S39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="T39" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="U39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X39" s="344" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y39" s="344">
+        <v>36</v>
+      </c>
+      <c r="Z39" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA39" s="345"/>
+      <c r="AB39" s="250"/>
+    </row>
+    <row r="40" ht="12.75" spans="1:28">
+      <c r="A40" s="288" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="289">
+        <f>SUMIF(C$12:C$34,A40,E$12:E$34)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="290" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="302" t="e">
-        <f>G88*42</f>
+      <c r="D40" s="291" t="e">
+        <f>C40*37.81</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S88" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="T88" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U88" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="X88" s="345" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y88" s="345">
-        <v>36</v>
-      </c>
-      <c r="Z88" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA88" s="346"/>
-      <c r="AB88" s="250"/>
-    </row>
-    <row r="89" ht="12" spans="1:28">
-      <c r="A89" s="297" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="298">
-        <f>SUMIF(C$12:C$83,A89,E$12:E$83)</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="299" t="e">
+      <c r="E40" s="295" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="289">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="290" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D89" s="300" t="e">
-        <f>C89*37.81</f>
+      <c r="H40" s="293" t="e">
+        <f>G40*84.6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E89" s="304" t="s">
-        <v>79</v>
-      </c>
-      <c r="F89" s="298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="299" t="e">
-        <f t="shared" si="5"/>
+      <c r="S40" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="T40" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="U40" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="X40" s="344" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y40" s="344">
+        <v>20.71</v>
+      </c>
+      <c r="Z40" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA40" s="345"/>
+      <c r="AB40" s="346"/>
+    </row>
+    <row r="41" ht="22.5" customHeight="1" spans="1:28">
+      <c r="A41" s="296" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="297">
+        <f>SUMIF(C$12:C$34,"*布*",E$12:E$34)-B38-F41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="298" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="302" t="e">
-        <f>G89*84.6</f>
+      <c r="D41" s="299" t="e">
+        <f>C41*36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S89" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="T89" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="U89" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="X89" s="345" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y89" s="345">
-        <v>20.71</v>
-      </c>
-      <c r="Z89" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA89" s="346"/>
-      <c r="AB89" s="347"/>
-    </row>
-    <row r="90" ht="22.5" customHeight="1" spans="1:28">
-      <c r="A90" s="305" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="306">
-        <f>SUMIF(C$12:C$83,"*布*",E$12:E$83)-B87-F90</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="307" t="e">
+      <c r="E41" s="295" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="289">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="298" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D90" s="308" t="e">
-        <f>C90*36</f>
+      <c r="H41" s="293" t="e">
+        <f>G41*39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E90" s="304" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" s="298">
+      <c r="S41" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="T41" s="109"/>
+      <c r="U41" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V41" s="174"/>
+      <c r="X41" s="344" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y41" s="344">
+        <v>36.9</v>
+      </c>
+      <c r="Z41" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA41" s="345"/>
+      <c r="AB41" s="250"/>
+    </row>
+    <row r="42" ht="22.5" customHeight="1" spans="1:28">
+      <c r="A42" s="300"/>
+      <c r="B42" s="301"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="302"/>
+      <c r="E42" s="303" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="303"/>
+      <c r="G42" s="303"/>
+      <c r="H42" s="304">
+        <f>SUM(H13:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="T42" s="109"/>
+      <c r="U42" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="344" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y42" s="344">
+        <v>141</v>
+      </c>
+      <c r="Z42" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA42" s="345"/>
+      <c r="AB42" s="250"/>
+    </row>
+    <row r="43" ht="22.5" customHeight="1" spans="1:28">
+      <c r="A43" s="305"/>
+      <c r="B43" s="306"/>
+      <c r="C43" s="306"/>
+      <c r="D43" s="307"/>
+      <c r="E43" s="308"/>
+      <c r="F43" s="308" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="308"/>
+      <c r="H43" s="308"/>
+      <c r="S43" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="T43" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="X43" s="344" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y43" s="344">
+        <v>105.67</v>
+      </c>
+      <c r="Z43" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB43" s="347"/>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:28">
+      <c r="A44" s="305"/>
+      <c r="B44" s="306"/>
+      <c r="C44" s="306"/>
+      <c r="D44" s="307"/>
+      <c r="E44" s="305"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="306"/>
+      <c r="H44" s="307"/>
+      <c r="S44" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="T44" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="U44" s="112"/>
+      <c r="X44" s="344" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y44" s="344">
+        <v>91.31</v>
+      </c>
+      <c r="Z44" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA44" s="345"/>
+      <c r="AB44" s="250"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:28">
+      <c r="A45" s="309" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="309"/>
+      <c r="C45" s="309"/>
+      <c r="D45" s="309"/>
+      <c r="E45" s="309"/>
+      <c r="F45" s="309"/>
+      <c r="G45" s="310">
+        <f>SUM(H47:H59)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="311" t="e">
+        <f>G45/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="T45" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="U45" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="V45" s="151"/>
+      <c r="X45" s="344" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y45" s="344">
+        <v>166.47</v>
+      </c>
+      <c r="Z45" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA45" s="345"/>
+      <c r="AB45" s="346"/>
+    </row>
+    <row r="46" ht="21.75" spans="1:28">
+      <c r="A46" s="216" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="216" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="216" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="216"/>
+      <c r="E46" s="287" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="216" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="312" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="T46" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="U46" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X46" s="344" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y46" s="344">
+        <v>161.47</v>
+      </c>
+      <c r="Z46" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB46" s="347"/>
+    </row>
+    <row r="47" ht="22.5" spans="1:30">
+      <c r="A47" s="313" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="274" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="314"/>
+      <c r="E47" s="315" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="316">
+        <v>5000</v>
+      </c>
+      <c r="G47" s="194"/>
+      <c r="H47" s="317">
+        <f t="shared" ref="H47:H59" si="4">F47*G47</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="T47" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="U47" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="W47" s="151"/>
+      <c r="X47" s="344" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y47" s="344">
+        <v>42</v>
+      </c>
+      <c r="Z47" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB47" s="347"/>
+      <c r="AC47" s="151"/>
+      <c r="AD47" s="151"/>
+    </row>
+    <row r="48" ht="22.5" spans="1:28">
+      <c r="A48" s="318"/>
+      <c r="B48" s="274" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="314"/>
+      <c r="E48" s="315" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="316">
+        <v>2700</v>
+      </c>
+      <c r="G48" s="194"/>
+      <c r="H48" s="317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G90" s="307" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="302" t="e">
-        <f>G90*39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S90" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="T90" s="109"/>
-      <c r="U90" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="V90" s="174"/>
-      <c r="X90" s="345" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y90" s="345">
-        <v>36.9</v>
-      </c>
-      <c r="Z90" s="345" t="s">
+      <c r="S48" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="T48" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="U48" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="X48" s="344" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y48" s="344">
+        <v>42</v>
+      </c>
+      <c r="Z48" s="344" t="s">
         <v>47</v>
       </c>
-      <c r="AA90" s="346"/>
-      <c r="AB90" s="250"/>
-    </row>
-    <row r="91" ht="22.5" customHeight="1" spans="1:28">
-      <c r="A91" s="309"/>
-      <c r="B91" s="310"/>
-      <c r="C91" s="310"/>
-      <c r="D91" s="311"/>
-      <c r="E91" s="312" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" s="312"/>
-      <c r="G91" s="312"/>
-      <c r="H91" s="313">
-        <f>SUM(H13:H82)</f>
-        <v>0</v>
-      </c>
-      <c r="S91" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="T91" s="109"/>
-      <c r="U91" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X91" s="345" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y91" s="345">
+      <c r="AA48" s="345"/>
+      <c r="AB48" s="250"/>
+    </row>
+    <row r="49" ht="22.5" spans="1:28">
+      <c r="A49" s="318"/>
+      <c r="B49" s="274" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="314"/>
+      <c r="E49" s="315" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="316">
+        <v>1800</v>
+      </c>
+      <c r="G49" s="194"/>
+      <c r="H49" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="T49" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="U49" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X49" s="344" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y49" s="344">
+        <v>42</v>
+      </c>
+      <c r="Z49" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB49" s="347"/>
+    </row>
+    <row r="50" ht="12.75" spans="1:28">
+      <c r="A50" s="319"/>
+      <c r="B50" s="274" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="314"/>
+      <c r="E50" s="320"/>
+      <c r="F50" s="316">
+        <v>600</v>
+      </c>
+      <c r="G50" s="194"/>
+      <c r="H50" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="T50" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X50" s="344" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y50" s="344">
+        <v>42</v>
+      </c>
+      <c r="Z50" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA50" s="345"/>
+      <c r="AB50" s="250"/>
+    </row>
+    <row r="51" ht="12.75" spans="1:28">
+      <c r="A51" s="313" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="313" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="314"/>
+      <c r="E51" s="321" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="316">
+        <v>1000</v>
+      </c>
+      <c r="G51" s="194"/>
+      <c r="H51" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="Z91" s="345" t="s">
+      <c r="T51" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="U51" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X51" s="344" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y51" s="344">
+        <v>39</v>
+      </c>
+      <c r="Z51" s="344" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="346"/>
-      <c r="AB91" s="250"/>
-    </row>
-    <row r="92" ht="22.5" customHeight="1" spans="1:28">
-      <c r="A92" s="314"/>
-      <c r="B92" s="315"/>
-      <c r="C92" s="315"/>
-      <c r="D92" s="316"/>
-      <c r="E92" s="317"/>
-      <c r="F92" s="317" t="s">
+      <c r="AA51" s="348"/>
+      <c r="AB51" s="346"/>
+    </row>
+    <row r="52" ht="12.75" spans="1:28">
+      <c r="A52" s="318"/>
+      <c r="B52" s="319"/>
+      <c r="C52" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="314"/>
+      <c r="E52" s="321" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="316">
+        <v>800</v>
+      </c>
+      <c r="G52" s="194"/>
+      <c r="H52" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="U52" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X52" s="344" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y52" s="344">
+        <v>30</v>
+      </c>
+      <c r="Z52" s="344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB52" s="151"/>
+    </row>
+    <row r="53" ht="12.75" spans="1:28">
+      <c r="A53" s="318"/>
+      <c r="B53" s="313" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="314"/>
+      <c r="E53" s="321" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="316">
+        <v>500</v>
+      </c>
+      <c r="G53" s="194"/>
+      <c r="H53" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="U53" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X53" s="344" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y53" s="344">
+        <v>12</v>
+      </c>
+      <c r="Z53" s="344" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB53" s="151"/>
+    </row>
+    <row r="54" ht="12.75" spans="1:28">
+      <c r="A54" s="318"/>
+      <c r="B54" s="319"/>
+      <c r="C54" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="314"/>
+      <c r="E54" s="321" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="316">
+        <v>400</v>
+      </c>
+      <c r="G54" s="194"/>
+      <c r="H54" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="U54" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X54" s="344" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y54" s="344">
+        <v>18</v>
+      </c>
+      <c r="Z54" s="344" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA54" s="345"/>
+      <c r="AB54" s="346"/>
+    </row>
+    <row r="55" ht="12.75" spans="1:28">
+      <c r="A55" s="318"/>
+      <c r="B55" s="313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="314"/>
+      <c r="E55" s="321" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="316">
+        <v>200</v>
+      </c>
+      <c r="G55" s="194"/>
+      <c r="H55" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="U55" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X55" s="344" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y55" s="344">
+        <v>7.7</v>
+      </c>
+      <c r="Z55" s="344" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA55" s="348"/>
+      <c r="AB55" s="346"/>
+    </row>
+    <row r="56" ht="12.75" spans="1:28">
+      <c r="A56" s="318"/>
+      <c r="B56" s="319"/>
+      <c r="C56" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="314"/>
+      <c r="E56" s="321" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="316">
+        <v>150</v>
+      </c>
+      <c r="G56" s="194"/>
+      <c r="H56" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="T56" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="U56" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="X56" s="344" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y56" s="344">
+        <v>2.2</v>
+      </c>
+      <c r="Z56" s="344" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA56" s="348"/>
+      <c r="AB56" s="346"/>
+    </row>
+    <row r="57" ht="12.75" spans="1:28">
+      <c r="A57" s="318"/>
+      <c r="B57" s="322" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="314"/>
+      <c r="E57" s="320" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="316">
+        <v>500</v>
+      </c>
+      <c r="G57" s="194"/>
+      <c r="H57" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="T57" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="U57" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="X57" s="344" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y57" s="344">
+        <v>55</v>
+      </c>
+      <c r="Z57" s="344" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA57" s="348"/>
+      <c r="AB57" s="346"/>
+    </row>
+    <row r="58" ht="12.75" spans="1:28">
+      <c r="A58" s="319"/>
+      <c r="B58" s="322" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="314" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="314"/>
+      <c r="E58" s="320" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="316">
+        <v>150</v>
+      </c>
+      <c r="G58" s="194"/>
+      <c r="H58" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="T58" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="U58" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="X58" s="344" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y58" s="344">
+        <v>132</v>
+      </c>
+      <c r="Z58" s="344" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA58" s="345"/>
+      <c r="AB58" s="346"/>
+    </row>
+    <row r="59" ht="12.75" spans="1:28">
+      <c r="A59" s="323" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="324"/>
+      <c r="C59" s="325" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="325"/>
+      <c r="E59" s="326"/>
+      <c r="F59" s="327">
+        <v>150</v>
+      </c>
+      <c r="G59" s="194"/>
+      <c r="H59" s="317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="X59" s="344" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y59" s="344">
+        <v>2.5</v>
+      </c>
+      <c r="Z59" s="344" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA59" s="131"/>
+      <c r="AB59" s="346"/>
+    </row>
+    <row r="60" ht="6" customHeight="1" spans="1:28">
+      <c r="A60" s="157"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="328"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="329"/>
+      <c r="S60" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="U60" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z60" s="113"/>
+      <c r="AA60" s="348"/>
+      <c r="AB60" s="346"/>
+    </row>
+    <row r="61" ht="13.5" customHeight="1" spans="5:28">
+      <c r="E61" s="330" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="330"/>
+      <c r="G61" s="330"/>
+      <c r="H61" s="331">
+        <f>SUM(H47:H59)</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="U61" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z61" s="113"/>
+      <c r="AA61" s="348"/>
+      <c r="AB61" s="346"/>
+    </row>
+    <row r="62" ht="22.5" customHeight="1" spans="1:28">
+      <c r="A62" s="305"/>
+      <c r="B62" s="306"/>
+      <c r="C62" s="306"/>
+      <c r="D62" s="307"/>
+      <c r="E62" s="308"/>
+      <c r="F62" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="G92" s="317"/>
-      <c r="H92" s="317"/>
-      <c r="S92" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="T92" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="U92" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="X92" s="345" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y92" s="345">
-        <v>105.67</v>
-      </c>
-      <c r="Z92" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB92" s="348"/>
-    </row>
-    <row r="93" ht="15" customHeight="1" spans="1:28">
-      <c r="A93" s="314"/>
-      <c r="B93" s="315"/>
-      <c r="C93" s="315"/>
-      <c r="D93" s="316"/>
-      <c r="E93" s="314"/>
-      <c r="F93" s="315"/>
-      <c r="G93" s="315"/>
-      <c r="H93" s="316"/>
-      <c r="S93" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="T93" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="U93" s="112"/>
-      <c r="X93" s="345" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y93" s="345">
-        <v>91.31</v>
-      </c>
-      <c r="Z93" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA93" s="346"/>
-      <c r="AB93" s="250"/>
-    </row>
-    <row r="94" customHeight="1" spans="1:28">
-      <c r="A94" s="318" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" s="318"/>
-      <c r="C94" s="318"/>
-      <c r="D94" s="318"/>
-      <c r="E94" s="318"/>
-      <c r="F94" s="318"/>
-      <c r="G94" s="319">
-        <f>SUM(H96:H108)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="320" t="e">
-        <f>G94/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S94" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="T94" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="U94" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="V94" s="151"/>
-      <c r="X94" s="345" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y94" s="345">
-        <v>166.47</v>
-      </c>
-      <c r="Z94" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA94" s="346"/>
-      <c r="AB94" s="347"/>
-    </row>
-    <row r="95" ht="21.75" spans="1:28">
-      <c r="A95" s="216" t="s">
-        <v>106</v>
-      </c>
-      <c r="B95" s="216" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="216" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="216"/>
-      <c r="E95" s="273" t="s">
-        <v>109</v>
-      </c>
-      <c r="F95" s="216" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" s="216" t="s">
-        <v>110</v>
-      </c>
-      <c r="H95" s="274" t="s">
-        <v>34</v>
-      </c>
-      <c r="S95" s="114" t="s">
-        <v>111</v>
-      </c>
-      <c r="T95" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="U95" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="X95" s="345" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y95" s="345">
-        <v>161.47</v>
-      </c>
-      <c r="Z95" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB95" s="348"/>
-    </row>
-    <row r="96" ht="22.5" spans="1:30">
-      <c r="A96" s="321" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96" s="295" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D96" s="289"/>
-      <c r="E96" s="322" t="s">
-        <v>118</v>
-      </c>
-      <c r="F96" s="323">
-        <v>5000</v>
-      </c>
-      <c r="G96" s="194"/>
-      <c r="H96" s="324">
-        <f t="shared" ref="H96:H108" si="6">F96*G96</f>
-        <v>0</v>
-      </c>
-      <c r="S96" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="T96" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="U96" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="W96" s="151"/>
-      <c r="X96" s="345" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y96" s="345">
-        <v>42</v>
-      </c>
-      <c r="Z96" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB96" s="348"/>
-      <c r="AC96" s="151"/>
-      <c r="AD96" s="151"/>
-    </row>
-    <row r="97" ht="22.5" spans="1:28">
-      <c r="A97" s="325"/>
-      <c r="B97" s="295" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" s="289"/>
-      <c r="E97" s="322" t="s">
-        <v>124</v>
-      </c>
-      <c r="F97" s="323">
-        <v>2700</v>
-      </c>
-      <c r="G97" s="194"/>
-      <c r="H97" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S97" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="T97" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="U97" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="X97" s="345" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y97" s="345">
-        <v>42</v>
-      </c>
-      <c r="Z97" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA97" s="346"/>
-      <c r="AB97" s="250"/>
-    </row>
-    <row r="98" ht="22.5" spans="1:28">
-      <c r="A98" s="325"/>
-      <c r="B98" s="295" t="s">
-        <v>129</v>
-      </c>
-      <c r="C98" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D98" s="289"/>
-      <c r="E98" s="322" t="s">
-        <v>124</v>
-      </c>
-      <c r="F98" s="323">
-        <v>1800</v>
-      </c>
-      <c r="G98" s="194"/>
-      <c r="H98" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="T98" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="U98" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="X98" s="345" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y98" s="345">
-        <v>42</v>
-      </c>
-      <c r="Z98" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB98" s="348"/>
-    </row>
-    <row r="99" ht="12" spans="1:28">
-      <c r="A99" s="326"/>
-      <c r="B99" s="295" t="s">
-        <v>134</v>
-      </c>
-      <c r="C99" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D99" s="289"/>
-      <c r="E99" s="327"/>
-      <c r="F99" s="323">
-        <v>600</v>
-      </c>
-      <c r="G99" s="194"/>
-      <c r="H99" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S99" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="T99" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="X99" s="345" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y99" s="345">
-        <v>42</v>
-      </c>
-      <c r="Z99" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA99" s="346"/>
-      <c r="AB99" s="250"/>
-    </row>
-    <row r="100" ht="12" spans="1:28">
-      <c r="A100" s="321" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" s="321" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" s="289"/>
-      <c r="E100" s="328" t="s">
-        <v>140</v>
-      </c>
-      <c r="F100" s="323">
-        <v>1000</v>
-      </c>
-      <c r="G100" s="194"/>
-      <c r="H100" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S100" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="T100" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="U100" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="X100" s="345" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y100" s="345">
-        <v>39</v>
-      </c>
-      <c r="Z100" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA100" s="349"/>
-      <c r="AB100" s="347"/>
-    </row>
-    <row r="101" ht="12" spans="1:28">
-      <c r="A101" s="325"/>
-      <c r="B101" s="326"/>
-      <c r="C101" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D101" s="289"/>
-      <c r="E101" s="328" t="s">
-        <v>145</v>
-      </c>
-      <c r="F101" s="323">
-        <v>800</v>
-      </c>
-      <c r="G101" s="194"/>
-      <c r="H101" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S101" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="U101" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="X101" s="345" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y101" s="345">
-        <v>30</v>
-      </c>
-      <c r="Z101" s="345" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB101" s="151"/>
-    </row>
-    <row r="102" ht="12" spans="1:28">
-      <c r="A102" s="325"/>
-      <c r="B102" s="321" t="s">
-        <v>149</v>
-      </c>
-      <c r="C102" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D102" s="289"/>
-      <c r="E102" s="328" t="s">
-        <v>140</v>
-      </c>
-      <c r="F102" s="323">
-        <v>500</v>
-      </c>
-      <c r="G102" s="194"/>
-      <c r="H102" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S102" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="T102" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="U102" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="X102" s="345" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y102" s="345">
-        <v>12</v>
-      </c>
-      <c r="Z102" s="345" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB102" s="151"/>
-    </row>
-    <row r="103" ht="12" spans="1:28">
-      <c r="A103" s="325"/>
-      <c r="B103" s="326"/>
-      <c r="C103" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D103" s="289"/>
-      <c r="E103" s="328" t="s">
-        <v>145</v>
-      </c>
-      <c r="F103" s="323">
-        <v>400</v>
-      </c>
-      <c r="G103" s="194"/>
-      <c r="H103" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S103" s="108" t="s">
-        <v>155</v>
-      </c>
-      <c r="T103" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="U103" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="X103" s="345" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y103" s="345">
-        <v>18</v>
-      </c>
-      <c r="Z103" s="345" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA103" s="346"/>
-      <c r="AB103" s="347"/>
-    </row>
-    <row r="104" ht="12" spans="1:28">
-      <c r="A104" s="325"/>
-      <c r="B104" s="321" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D104" s="289"/>
-      <c r="E104" s="328" t="s">
-        <v>140</v>
-      </c>
-      <c r="F104" s="323">
+      <c r="G62" s="308"/>
+      <c r="H62" s="308"/>
+      <c r="S62" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="U62" s="112"/>
+      <c r="X62" s="248"/>
+      <c r="Y62" s="248"/>
+      <c r="Z62" s="248"/>
+      <c r="AA62" s="348"/>
+      <c r="AB62" s="346"/>
+    </row>
+    <row r="63" ht="5.25" customHeight="1" spans="19:28">
+      <c r="S63" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="U63" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z63" s="113"/>
+      <c r="AA63" s="345"/>
+      <c r="AB63" s="346"/>
+    </row>
+    <row r="64" ht="13.5" spans="1:28">
+      <c r="A64" s="332" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="131"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="254"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
+      <c r="S64" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="U64" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z64" s="113"/>
+      <c r="AA64" s="345"/>
+      <c r="AB64" s="346"/>
+    </row>
+    <row r="65" ht="12.75" spans="1:28">
+      <c r="A65" s="165" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="166"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="166"/>
+      <c r="E65" s="349"/>
+      <c r="F65" s="166"/>
+      <c r="G65" s="166"/>
+      <c r="H65" s="167"/>
+      <c r="S65" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA65" s="345"/>
+      <c r="AB65" s="346"/>
+    </row>
+    <row r="66" ht="12.75" spans="1:28">
+      <c r="A66" s="168" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="131"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="254"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="134"/>
+      <c r="S66" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="U66" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z66" s="113"/>
+      <c r="AA66" s="345"/>
+      <c r="AB66" s="346"/>
+    </row>
+    <row r="67" ht="12.75" spans="1:28">
+      <c r="A67" s="168" t="s">
         <v>200</v>
       </c>
-      <c r="G104" s="194"/>
-      <c r="H104" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S104" s="108" t="s">
-        <v>160</v>
-      </c>
-      <c r="T104" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="U104" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="X104" s="345" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y104" s="345">
-        <v>7.7</v>
-      </c>
-      <c r="Z104" s="345" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA104" s="349"/>
-      <c r="AB104" s="347"/>
-    </row>
-    <row r="105" ht="12" spans="1:28">
-      <c r="A105" s="325"/>
-      <c r="B105" s="326"/>
-      <c r="C105" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" s="289"/>
-      <c r="E105" s="328" t="s">
-        <v>145</v>
-      </c>
-      <c r="F105" s="323">
-        <v>150</v>
-      </c>
-      <c r="G105" s="194"/>
-      <c r="H105" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S105" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="T105" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="U105" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="X105" s="345" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y105" s="345">
-        <v>2.2</v>
-      </c>
-      <c r="Z105" s="345" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA105" s="349"/>
-      <c r="AB105" s="347"/>
-    </row>
-    <row r="106" ht="12" spans="1:28">
-      <c r="A106" s="325"/>
-      <c r="B106" s="329" t="s">
-        <v>169</v>
-      </c>
-      <c r="C106" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D106" s="289"/>
-      <c r="E106" s="327" t="s">
-        <v>170</v>
-      </c>
-      <c r="F106" s="323">
-        <v>500</v>
-      </c>
-      <c r="G106" s="194"/>
-      <c r="H106" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S106" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="T106" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="U106" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="X106" s="345" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y106" s="345">
-        <v>55</v>
-      </c>
-      <c r="Z106" s="345" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA106" s="349"/>
-      <c r="AB106" s="347"/>
-    </row>
-    <row r="107" ht="12" spans="1:28">
-      <c r="A107" s="326"/>
-      <c r="B107" s="329" t="s">
-        <v>176</v>
-      </c>
-      <c r="C107" s="289" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" s="289"/>
-      <c r="E107" s="327" t="s">
-        <v>170</v>
-      </c>
-      <c r="F107" s="323">
-        <v>150</v>
-      </c>
-      <c r="G107" s="194"/>
-      <c r="H107" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S107" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="T107" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="U107" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="X107" s="345" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y107" s="345">
-        <v>132</v>
-      </c>
-      <c r="Z107" s="345" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA107" s="346"/>
-      <c r="AB107" s="347"/>
-    </row>
-    <row r="108" ht="12" spans="1:28">
-      <c r="A108" s="330" t="s">
-        <v>180</v>
-      </c>
-      <c r="B108" s="331"/>
-      <c r="C108" s="332" t="s">
-        <v>117</v>
-      </c>
-      <c r="D108" s="332"/>
-      <c r="E108" s="333"/>
-      <c r="F108" s="334">
-        <v>150</v>
-      </c>
-      <c r="G108" s="194"/>
-      <c r="H108" s="324">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S108" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="X108" s="345" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y108" s="345">
-        <v>2.5</v>
-      </c>
-      <c r="Z108" s="345" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA108" s="131"/>
-      <c r="AB108" s="347"/>
-    </row>
-    <row r="109" ht="6" customHeight="1" spans="1:28">
-      <c r="A109" s="157"/>
-      <c r="B109" s="157"/>
-      <c r="C109" s="157"/>
-      <c r="D109" s="157"/>
-      <c r="E109" s="335"/>
-      <c r="F109" s="157"/>
-      <c r="G109" s="157"/>
-      <c r="H109" s="336"/>
-      <c r="S109" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="U109" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z109" s="113"/>
-      <c r="AA109" s="349"/>
-      <c r="AB109" s="347"/>
-    </row>
-    <row r="110" ht="13.5" customHeight="1" spans="5:28">
-      <c r="E110" s="337" t="s">
-        <v>186</v>
-      </c>
-      <c r="F110" s="337"/>
-      <c r="G110" s="337"/>
-      <c r="H110" s="338">
-        <f>SUM(H96:H108)</f>
-        <v>0</v>
-      </c>
-      <c r="S110" s="108" t="s">
-        <v>187</v>
-      </c>
-      <c r="U110" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z110" s="113"/>
-      <c r="AA110" s="349"/>
-      <c r="AB110" s="347"/>
-    </row>
-    <row r="111" ht="22.5" customHeight="1" spans="1:28">
-      <c r="A111" s="314"/>
-      <c r="B111" s="315"/>
-      <c r="C111" s="315"/>
-      <c r="D111" s="316"/>
-      <c r="E111" s="317"/>
-      <c r="F111" s="317" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" s="317"/>
-      <c r="H111" s="317"/>
-      <c r="S111" s="108" t="s">
-        <v>189</v>
-      </c>
-      <c r="U111" s="112"/>
-      <c r="X111" s="248"/>
-      <c r="Y111" s="248"/>
-      <c r="Z111" s="248"/>
-      <c r="AA111" s="349"/>
-      <c r="AB111" s="347"/>
-    </row>
-    <row r="112" ht="5.25" customHeight="1" spans="19:28">
-      <c r="S112" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="U112" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z112" s="113"/>
-      <c r="AA112" s="346"/>
-      <c r="AB112" s="347"/>
-    </row>
-    <row r="113" ht="12.75" spans="1:28">
-      <c r="A113" s="339" t="s">
-        <v>192</v>
-      </c>
-      <c r="B113" s="131"/>
-      <c r="C113" s="131"/>
-      <c r="D113" s="131"/>
-      <c r="E113" s="254"/>
-      <c r="F113" s="131"/>
-      <c r="G113" s="131"/>
-      <c r="H113" s="131"/>
-      <c r="S113" s="108" t="s">
-        <v>193</v>
-      </c>
-      <c r="U113" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z113" s="113"/>
-      <c r="AA113" s="346"/>
-      <c r="AB113" s="347"/>
-    </row>
-    <row r="114" ht="12" spans="1:28">
-      <c r="A114" s="165" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" s="166"/>
-      <c r="C114" s="166"/>
-      <c r="D114" s="166"/>
-      <c r="E114" s="340"/>
-      <c r="F114" s="166"/>
-      <c r="G114" s="166"/>
-      <c r="H114" s="167"/>
-      <c r="S114" s="108" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA114" s="346"/>
-      <c r="AB114" s="347"/>
-    </row>
-    <row r="115" ht="12" spans="1:28">
-      <c r="A115" s="168" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" s="131"/>
-      <c r="C115" s="131"/>
-      <c r="D115" s="131"/>
-      <c r="E115" s="254"/>
-      <c r="F115" s="131"/>
-      <c r="G115" s="131"/>
-      <c r="H115" s="134"/>
-      <c r="S115" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="U115" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z115" s="113"/>
-      <c r="AA115" s="346"/>
-      <c r="AB115" s="347"/>
-    </row>
-    <row r="116" ht="12" spans="1:28">
-      <c r="A116" s="168" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" s="131"/>
-      <c r="C116" s="131"/>
-      <c r="D116" s="131"/>
-      <c r="E116" s="254"/>
-      <c r="F116" s="131"/>
-      <c r="G116" s="131"/>
-      <c r="H116" s="134"/>
-      <c r="S116" s="108" t="s">
+      <c r="B67" s="131"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="254"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="131"/>
+      <c r="H67" s="134"/>
+      <c r="S67" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="U116" s="14" t="s">
+      <c r="U67" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="X116" s="248"/>
-      <c r="Y116" s="248"/>
-      <c r="Z116" s="248"/>
-      <c r="AA116" s="346"/>
-      <c r="AB116" s="347"/>
-    </row>
-    <row r="117" spans="1:21">
-      <c r="A117" s="168" t="s">
+      <c r="X67" s="248"/>
+      <c r="Y67" s="248"/>
+      <c r="Z67" s="248"/>
+      <c r="AA67" s="345"/>
+      <c r="AB67" s="346"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="B117" s="131"/>
-      <c r="C117" s="131"/>
-      <c r="D117" s="131"/>
-      <c r="E117" s="254"/>
-      <c r="F117" s="131"/>
-      <c r="G117" s="131"/>
-      <c r="H117" s="134"/>
-      <c r="S117" s="108" t="s">
+      <c r="B68" s="131"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="254"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="134"/>
+      <c r="S68" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="U117" s="14" t="s">
+      <c r="U68" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
-      <c r="A118" s="168" t="s">
+    <row r="69" spans="1:21">
+      <c r="A69" s="168" t="s">
         <v>206</v>
       </c>
-      <c r="B118" s="131"/>
-      <c r="C118" s="131"/>
-      <c r="D118" s="131"/>
-      <c r="E118" s="254"/>
-      <c r="F118" s="131"/>
-      <c r="G118" s="131"/>
-      <c r="H118" s="134"/>
-      <c r="S118" s="108" t="s">
+      <c r="B69" s="131"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="131"/>
+      <c r="E69" s="254"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="134"/>
+      <c r="S69" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="U118" s="14" t="s">
+      <c r="U69" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="119" ht="12" spans="1:21">
-      <c r="A119" s="201" t="s">
+    <row r="70" ht="12" spans="1:21">
+      <c r="A70" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="B119" s="171"/>
-      <c r="C119" s="171"/>
-      <c r="D119" s="171"/>
-      <c r="E119" s="341"/>
-      <c r="F119" s="171"/>
-      <c r="G119" s="171"/>
-      <c r="H119" s="229"/>
-      <c r="S119" s="108" t="s">
+      <c r="B70" s="171"/>
+      <c r="C70" s="171"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="350"/>
+      <c r="F70" s="171"/>
+      <c r="G70" s="171"/>
+      <c r="H70" s="229"/>
+      <c r="S70" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="T119" s="109"/>
-      <c r="U119" s="14" t="s">
+      <c r="T70" s="109"/>
+      <c r="U70" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="19:19">
-      <c r="S120" s="108" t="s">
+    <row r="71" spans="19:19">
+      <c r="S71" s="108" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="19:21">
-      <c r="S121" s="108"/>
-      <c r="U121" s="14" t="s">
+    <row r="72" spans="19:21">
+      <c r="S72" s="108"/>
+      <c r="U72" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="122" spans="19:21">
-      <c r="S122" s="13" t="s">
+    <row r="73" spans="19:21">
+      <c r="S73" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="T122" s="109"/>
-      <c r="U122" s="14" t="s">
+      <c r="T73" s="109"/>
+      <c r="U73" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="6:21">
-      <c r="F123" s="342" t="s">
+    <row r="74" spans="6:21">
+      <c r="F74" s="351" t="s">
         <v>216</v>
       </c>
-      <c r="U123" s="14" t="s">
+      <c r="U74" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="6:21">
-      <c r="F124" s="343" t="s">
+    <row r="75" spans="6:21">
+      <c r="F75" s="352" t="s">
         <v>218</v>
       </c>
-      <c r="G124" s="344"/>
-      <c r="H124" s="344"/>
-      <c r="S124" s="13" t="s">
+      <c r="G75" s="353"/>
+      <c r="H75" s="353"/>
+      <c r="S75" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="U124" s="14" t="s">
+      <c r="U75" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="21:21">
-      <c r="U125" s="14" t="s">
+    <row r="76" spans="21:21">
+      <c r="U76" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="19:20">
-      <c r="S126" s="13" t="s">
+    <row r="77" spans="19:20">
+      <c r="S77" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="T126" s="109"/>
-    </row>
-    <row r="127" spans="19:19">
-      <c r="S127" s="13" t="s">
+      <c r="T77" s="109"/>
+    </row>
+    <row r="78" spans="19:19">
+      <c r="S78" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="19:19">
-      <c r="S128" s="13" t="s">
+    <row r="79" spans="19:19">
+      <c r="S79" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="19:19">
-      <c r="S129" s="13" t="s">
+    <row r="80" spans="19:19">
+      <c r="S80" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="19:19">
-      <c r="S130" s="112" t="s">
+    <row r="81" spans="19:19">
+      <c r="S81" s="112" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="19:19">
-      <c r="S131" s="13" t="s">
+    <row r="82" spans="19:19">
+      <c r="S82" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="132" spans="19:19">
-      <c r="S132" s="13" t="s">
+    <row r="83" spans="19:19">
+      <c r="S83" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="19:19">
-      <c r="S133" s="13" t="s">
+    <row r="84" spans="19:19">
+      <c r="S84" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="19:19">
-      <c r="S134" s="13" t="s">
+    <row r="85" spans="19:19">
+      <c r="S85" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="135" spans="19:19">
-      <c r="S135" s="13" t="s">
+    <row r="86" spans="19:19">
+      <c r="S86" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="136" spans="19:19">
-      <c r="S136" s="13" t="s">
+    <row r="87" spans="19:19">
+      <c r="S87" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="19:19">
-      <c r="S137" s="13" t="s">
+    <row r="88" spans="19:19">
+      <c r="S88" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="19:19">
-      <c r="S138" s="13" t="s">
+    <row r="89" spans="19:19">
+      <c r="S89" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="139" spans="19:19">
-      <c r="S139" s="13" t="s">
+    <row r="90" spans="19:19">
+      <c r="S90" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="19:19">
-      <c r="S140" s="13" t="s">
+    <row r="91" spans="19:19">
+      <c r="S91" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="19:19">
-      <c r="S141" s="13" t="s">
+    <row r="92" spans="19:19">
+      <c r="S92" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="142" spans="19:19">
-      <c r="S142" s="13" t="s">
+    <row r="93" spans="19:19">
+      <c r="S93" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="19:19">
-      <c r="S143" s="108" t="s">
+    <row r="94" spans="19:19">
+      <c r="S94" s="108" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="21:21">
-      <c r="U145" s="115"/>
-    </row>
-    <row r="146" spans="19:20">
-      <c r="S146" s="108"/>
-      <c r="T146" s="109"/>
+    <row r="96" spans="21:21">
+      <c r="U96" s="115"/>
+    </row>
+    <row r="97" spans="19:20">
+      <c r="S97" s="108"/>
+      <c r="T97" s="109"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -9521,35 +8925,17 @@
     <sortCondition ref="Y48:Y61" descending="1"/>
     <sortCondition ref="X48:X61"/>
   </sortState>
-  <mergeCells count="28">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="H33:H42"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="H53:H62"/>
-    <mergeCell ref="H63:H72"/>
-    <mergeCell ref="H73:H82"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B5:D6"/>
+  <mergeCells count="10">
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="K2">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="greaterThan">
@@ -9588,195 +8974,72 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="62">
+  <dataValidations count="21">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AD英文项目名称-CR用" prompt="请活动负责人填写此处后再转回金总：名称由AD活动负责人提供" sqref="B8"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
-      <formula1>$X$83:$X$108</formula1>
+      <formula1>$X$34:$X$59</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N21">
-      <formula1>T$82:T262</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C29 C30 C14:C15 C16:C18 C19:C21 C22:C24 C25:C27 C31:C33">
+      <formula1>$X$34:$X$58</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O21">
-      <formula1>T$82:T262</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N30">
-      <formula1>T$82:T264</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O30">
-      <formula1>T$82:T264</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N31">
-      <formula1>T$82:T263</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O31">
-      <formula1>T$82:T263</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N38">
-      <formula1>T$82:T268</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O38">
-      <formula1>T$82:T268</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N41">
-      <formula1>T$82:T269</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O41">
-      <formula1>T$82:T269</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N59">
-      <formula1>T$82:T276</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O59">
-      <formula1>T$82:T276</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N60">
-      <formula1>T$82:T275</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O60">
-      <formula1>T$82:T275</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N61">
-      <formula1>T$82:T275</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O61">
-      <formula1>T$82:T275</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N69">
-      <formula1>T$82:T280</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O69">
-      <formula1>T$82:T280</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N79">
-      <formula1>T$82:T284</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O79">
-      <formula1>T$82:T284</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C82">
-      <formula1>$X$83:$X$107</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28 D29 D30 D13:D15 D16:D18 D19:D21 D22:D24 D25:D27 D31:D33">
       <formula1>"平方米,件PCS,米M"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N28 N29 N45:N61 N63:N65531">
+      <formula1>T$34:T227</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O28 O29 O45:O61 O63:O65531">
+      <formula1>T$34:T227</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N30 N25:N27">
+      <formula1>T$34:T223</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O30 O25:O27">
+      <formula1>T$34:T223</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5">
-      <formula1>U$82:U244</formula1>
+      <formula1>U$34:U195</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
       <formula1>"总部,北区,西区,东区,南区,Taylormade,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5 N18:N20">
-      <formula1>S$82:S244</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5">
+      <formula1>S$34:S195</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17">
-      <formula1>T$82:T245</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N15">
+      <formula1>T$34:T196</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N22:N26">
-      <formula1>T$82:T259</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16:N18">
+      <formula1>T$34:T211</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N27:N29">
-      <formula1>T$82:T263</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N19:N21">
+      <formula1>T$34:T215</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N32:N37">
-      <formula1>T$82:T263</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N22:N24">
+      <formula1>T$34:T219</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N39:N40">
-      <formula1>T$82:T268</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N31:N33 N34:N42">
+      <formula1>T$34:T231</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42:N46">
-      <formula1>T$82:T267</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O15">
+      <formula1>T$34:T196</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N47:N49">
-      <formula1>T$82:T271</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O16:O18">
+      <formula1>T$34:T211</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N50:N51">
-      <formula1>T$82:T271</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O19:O21">
+      <formula1>T$34:T215</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N52:N56">
-      <formula1>T$82:T271</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O22:O24">
+      <formula1>T$34:T219</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N57:N58">
-      <formula1>T$82:T275</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N62:N66">
-      <formula1>T$82:T275</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N67:N68">
-      <formula1>T$82:T279</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N70:N71">
-      <formula1>T$82:T279</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N72:N78">
-      <formula1>T$82:T279</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N80:N81">
-      <formula1>T$82:T283</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N82:N91">
-      <formula1>T$82:T282</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N94:N110 N112:N65580">
-      <formula1>T$82:T293</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O17">
-      <formula1>T$82:T245</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O20">
-      <formula1>T$82:T260</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O22:O26">
-      <formula1>T$82:T259</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O27:O29">
-      <formula1>T$82:T263</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O32:O37">
-      <formula1>T$82:T263</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O39:O40">
-      <formula1>T$82:T268</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O42:O46">
-      <formula1>T$82:T267</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O47:O49">
-      <formula1>T$82:T271</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O50:O51">
-      <formula1>T$82:T271</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O52:O56">
-      <formula1>T$82:T271</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O57:O58">
-      <formula1>T$82:T275</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O62:O66">
-      <formula1>T$82:T275</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O67:O68">
-      <formula1>T$82:T279</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O70:O71">
-      <formula1>T$82:T279</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O72:O78">
-      <formula1>T$82:T279</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O80:O81">
-      <formula1>T$82:T283</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O82:O91">
-      <formula1>T$82:T282</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O94:O110 O112:O65580">
-      <formula1>T$82:T293</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O31:O33 O34:O42">
+      <formula1>T$34:T231</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.393055555555556" bottom="0.393055555555556" header="0.196527777777778" footer="0.118055555555556"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -9791,13 +9054,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>91</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>127000</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>749300</xdr:colOff>
-                    <xdr:row>92</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -9813,13 +9076,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>91</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>127000</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>749300</xdr:colOff>
-                    <xdr:row>92</xdr:row>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>15875</xdr:colOff>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -9835,13 +9098,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>61</xdr:row>
                     <xdr:rowOff>127000</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>749300</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -9857,13 +9120,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>61</xdr:row>
                     <xdr:rowOff>127000</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>749300</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>15875</xdr:colOff>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -9885,7 +9148,7 @@
   <dimension ref="A1:AK227"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -10153,10 +9416,7 @@
       <c r="A8" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="186">
-        <f>IF(ISBLANK('PO V4'!B8),"",'PO V4'!B8)</f>
-        <v>1111</v>
-      </c>
+      <c r="B8" s="186"/>
       <c r="C8" s="186"/>
       <c r="D8" s="186"/>
       <c r="E8" s="131"/>
@@ -10177,7 +9437,7 @@
       <c r="P8" s="134"/>
       <c r="Q8" s="245">
         <f ca="1">TODAY()</f>
-        <v>43121</v>
+        <v>43266</v>
       </c>
     </row>
     <row r="9" s="174" customFormat="1" ht="5.25" customHeight="1" spans="1:23">
@@ -11151,7 +10411,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" ht="12" spans="1:34">
+    <row r="46" ht="12.75" spans="1:34">
       <c r="A46" s="168" t="s">
         <v>270</v>
       </c>
@@ -12731,8 +11991,8 @@
       <formula1>AB$39:AB250</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.236111111111111" right="0" top="0" bottom="0" header="0.0388888888888889" footer="0"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="200" verticalDpi="300"/>
+  <pageMargins left="0.235416666666667" right="0" top="0" bottom="0" header="0.0388888888888889" footer="0"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -12796,8 +12056,8 @@
   </sheetPr>
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -14141,10 +13401,7 @@
       <c r="A8" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="136">
-        <f>IF(ISBLANK('PO V4'!B8),"",'PO V4'!B8)</f>
-        <v>1111</v>
-      </c>
+      <c r="B8" s="136"/>
       <c r="C8" s="136"/>
       <c r="D8" s="137"/>
       <c r="E8" s="138" t="s">
@@ -15471,11 +14728,50 @@
       <c r="G58" s="173"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="44">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
     <mergeCell ref="E52:F52"/>
   </mergeCells>
   <dataValidations count="2">
@@ -15487,7 +14783,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -15647,7 +14943,7 @@
       </c>
       <c r="M4" s="78">
         <f ca="1">TODAY()</f>
-        <v>43121</v>
+        <v>43266</v>
       </c>
       <c r="O4" s="79" t="s">
         <v>315</v>
@@ -16712,7 +16008,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.354166666666667" bottom="0.156944444444444" header="0.196527777777778" footer="0.118055555555556"/>
+  <pageMargins left="0" right="0" top="0.354166666666667" bottom="0.15625" header="0.196527777777778" footer="0.118055555555556"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
